--- a/Templates Converted/liquidityManagement.250808.xlsx
+++ b/Templates Converted/liquidityManagement.250808.xlsx
@@ -743,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,6 +872,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -885,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1014,6 +1051,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1027,7 +1101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
@@ -1167,191 +1241,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>liquidityManagement.250808Request</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Request</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>liquidityManagement.250808Request</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>settlementBIC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>The STEP2 Settlement BIC owning liquidity position in CGS</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>4!c2!a2!c3!c</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>IPSDID21XXX; TESBIC11XXX; TESBIC99XXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Amount to be funded or defunded according to transferTp</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>double</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>999999999999999.99</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>1000; 100000; 99999.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>body</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>transferTp</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Value allowed:
-F (request for funding)
-D (defunding)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>F,D</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>F; D</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 D3:D1048576">
@@ -1434,7 +1351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1571,92 +1488,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>liquidityManagement.250808Response</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Response creation</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>liquidityManagement.250808Response</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>availableLiquidity</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>The available liquidity.
-In case of defunding operations, the amount is calculated starting from the current amount minus the defunding amount in the request</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>double</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>999999999999999.99</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1000; 100000; 99999.01</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1671,7 +1530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1800,6 +1659,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>liquidityManagement.250808Response</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>liquidityManagement.250808Response</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1813,7 +1709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1950,173 +1846,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dateTime</t>
+          <t>errorResponse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>The date and time of the API Response creation</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>schema</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>YYYY-MM-DDTHH:MM:SS[.M{1,6}]</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2019-06-21T23:20:50.000001; 2024-11-08T14:29:00.012345; 9999-12-31T12:55:45.000001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>errorCode</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>The relevant error code</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>AX01; R01, XT92</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>errorCodeDescription</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>The description of the error</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Transaction rejected; File rejected; Schema error</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>content</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>requestId</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>The univocal reference per senderBIC and date assigned by the system to the API request</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>REQID000011112222333445661234567890; REQID000011112222333445661234567891; REQID000011112222333445661234567892</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2131,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2260,6 +2017,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2273,7 +2067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2402,6 +2196,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2415,7 +2246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2544,6 +2375,43 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>errorResponse1</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
